--- a/Calendario 4 Semanas.xlsx
+++ b/Calendario 4 Semanas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo Arango Valenci\OneDrive - Universidad de Antioquia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo Arango Valenci\OneDrive - Universidad de Antioquia\Documentos\repositorio prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D628390-2918-476E-A998-5DFB7629D6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FAF59-3975-4336-9CC8-8868D7A005CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B998CF33-F9ED-401C-92F1-2C42874B65F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="32">
   <si>
     <t>L</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Semana 5-11 MARZO</t>
+  </si>
+  <si>
+    <t>Envio Catequistas</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -842,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1374,6 +1377,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006704263559FC6548BD288283575EDAD8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4110cb85e99cbe5a24c723887aff7754">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847f3826-a425-43aa-a10e-248d9a81c14c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d8a9e488af22a953af62f3abd7e689a" ns3:_="">
     <xsd:import namespace="847f3826-a425-43aa-a10e-248d9a81c14c"/>
@@ -1563,15 +1575,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1579,6 +1582,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7D87DD-15B9-41AA-AF44-F62716654036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97ED4328-41DA-4A5B-96D4-D62B15BEDEF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1592,14 +1603,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7D87DD-15B9-41AA-AF44-F62716654036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Calendario 4 Semanas.xlsx
+++ b/Calendario 4 Semanas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo Arango Valenci\OneDrive - Universidad de Antioquia\Documentos\repositorio prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FAF59-3975-4336-9CC8-8868D7A005CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B494561-74E3-432D-B8EB-26A1DF082E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B998CF33-F9ED-401C-92F1-2C42874B65F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B998CF33-F9ED-401C-92F1-2C42874B65F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="31">
   <si>
     <t>L</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Semana 5-11 MARZO</t>
-  </si>
-  <si>
-    <t>Envio Catequistas</t>
   </si>
 </sst>
 </file>
@@ -819,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -845,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1377,15 +1374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006704263559FC6548BD288283575EDAD8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4110cb85e99cbe5a24c723887aff7754">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847f3826-a425-43aa-a10e-248d9a81c14c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d8a9e488af22a953af62f3abd7e689a" ns3:_="">
     <xsd:import namespace="847f3826-a425-43aa-a10e-248d9a81c14c"/>
@@ -1575,6 +1563,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1582,14 +1579,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7D87DD-15B9-41AA-AF44-F62716654036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97ED4328-41DA-4A5B-96D4-D62B15BEDEF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1603,6 +1592,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7D87DD-15B9-41AA-AF44-F62716654036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Calendario 4 Semanas.xlsx
+++ b/Calendario 4 Semanas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo Arango Valenci\OneDrive - Universidad de Antioquia\Documentos\repositorio prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B494561-74E3-432D-B8EB-26A1DF082E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22652916-35E0-4EB4-AECF-986AD4470183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B998CF33-F9ED-401C-92F1-2C42874B65F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B998CF33-F9ED-401C-92F1-2C42874B65F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="32">
   <si>
     <t>L</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Semana 5-11 MARZO</t>
+  </si>
+  <si>
+    <t>Parcial Algebra Lineal</t>
   </si>
 </sst>
 </file>
@@ -500,27 +503,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DB7C03-C03C-4306-937D-4087D709C3A5}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -546,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -572,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -598,7 +601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -624,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -650,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -676,7 +679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -702,7 +705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -728,12 +731,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -759,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -785,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -811,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -837,7 +840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -863,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -889,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -915,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -941,12 +944,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -972,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1076,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1154,12 +1157,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1374,6 +1377,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006704263559FC6548BD288283575EDAD8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4110cb85e99cbe5a24c723887aff7754">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847f3826-a425-43aa-a10e-248d9a81c14c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d8a9e488af22a953af62f3abd7e689a" ns3:_="">
     <xsd:import namespace="847f3826-a425-43aa-a10e-248d9a81c14c"/>
@@ -1563,15 +1575,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1579,6 +1582,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7D87DD-15B9-41AA-AF44-F62716654036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97ED4328-41DA-4A5B-96D4-D62B15BEDEF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1592,14 +1603,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7D87DD-15B9-41AA-AF44-F62716654036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
